--- a/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
+++ b/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
@@ -667,10 +667,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.04296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -889,16 +889,30 @@
       <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="16" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="n">
+        <v>6</v>
+      </c>
       <c r="K6" s="18"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -28934,7 +28948,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
+++ b/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t xml:space="preserve">30 days and nights of data - data recording sheet</t>
   </si>
@@ -667,10 +667,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.04296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -790,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="16" t="n">
         <v>0.375</v>
@@ -913,7 +913,9 @@
       <c r="J6" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -937,17 +939,33 @@
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="I7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -971,17 +989,33 @@
       <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="16" t="n">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F8" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="I8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -28948,7 +28982,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
+++ b/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
   <si>
     <t xml:space="preserve">30 days and nights of data - data recording sheet</t>
   </si>
@@ -667,10 +667,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1039,17 +1039,33 @@
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="16" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1073,17 +1089,33 @@
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="I10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1107,17 +1139,33 @@
       <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="I11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -28979,10 +29027,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="K11 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
+++ b/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
   <si>
     <t xml:space="preserve">30 days and nights of data - data recording sheet</t>
   </si>
@@ -666,11 +666,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.1875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1189,17 +1189,33 @@
       <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="16" t="n">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="I12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1223,17 +1239,33 @@
       <c r="B13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E13" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="I13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1257,17 +1289,33 @@
       <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="16" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D14" s="16" t="n">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E14" s="17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="I14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1291,17 +1339,33 @@
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="16" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="D15" s="16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="I15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -29027,10 +29091,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="K11 D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
+++ b/unist_286D/SleepLog_first_and_second_30days_Spring2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
   <si>
     <t xml:space="preserve">30 days and nights of data - data recording sheet</t>
   </si>
@@ -667,10 +667,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1389,17 +1389,33 @@
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="I16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1423,17 +1439,33 @@
       <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="16" t="n">
+        <v>0.0104166666666667</v>
+      </c>
+      <c r="D17" s="16" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="H17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -29094,7 +29126,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.17578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
